--- a/Live/tiles/pieces.xlsx
+++ b/Live/tiles/pieces.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\Programing Stuff\ROM Editor\Live\tiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC35596-BA5F-4702-8084-5BDFEC37A7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D4D020-8783-432F-BE42-9F2075EB1FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{048FF369-37DA-4254-91C9-C57CDC2875E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{048FF369-37DA-4254-91C9-C57CDC2875E1}"/>
   </bookViews>
   <sheets>
     <sheet name="pieces" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="59">
   <si>
     <t>I-bottom</t>
   </si>
@@ -78,12 +81,132 @@
   <si>
     <t>Iright</t>
   </si>
+  <si>
+    <t>333333333333</t>
+  </si>
+  <si>
+    <t>333233323333</t>
+  </si>
+  <si>
+    <t>333133313333</t>
+  </si>
+  <si>
+    <t>333233313333</t>
+  </si>
+  <si>
+    <t>333313133333</t>
+  </si>
+  <si>
+    <t>211111210121</t>
+  </si>
+  <si>
+    <t>211121110121</t>
+  </si>
+  <si>
+    <t>211112110121</t>
+  </si>
+  <si>
+    <t>212121120121</t>
+  </si>
+  <si>
+    <t>211211110121</t>
+  </si>
+  <si>
+    <t>331333133333</t>
+  </si>
+  <si>
+    <t>211212110121</t>
+  </si>
+  <si>
+    <t>232111123130</t>
+  </si>
+  <si>
+    <t>231211213130</t>
+  </si>
+  <si>
+    <t>231111113130</t>
+  </si>
+  <si>
+    <t>231112113133</t>
+  </si>
+  <si>
+    <t>331333233333</t>
+  </si>
+  <si>
+    <t>333313233333</t>
+  </si>
+  <si>
+    <t>201121113301</t>
+  </si>
+  <si>
+    <t>201111123301</t>
+  </si>
+  <si>
+    <t>231211213133</t>
+  </si>
+  <si>
+    <t>211111110121</t>
+  </si>
+  <si>
+    <t>212211120121</t>
+  </si>
+  <si>
+    <t>231111213130</t>
+  </si>
+  <si>
+    <t>201112113301</t>
+  </si>
+  <si>
+    <t>202111113301</t>
+  </si>
+  <si>
+    <t>231121113133</t>
+  </si>
+  <si>
+    <t>212112120121</t>
+  </si>
+  <si>
+    <t>231121113130</t>
+  </si>
+  <si>
+    <t>231111123133</t>
+  </si>
+  <si>
+    <t>231211113133</t>
+  </si>
+  <si>
+    <t>231111113133</t>
+  </si>
+  <si>
+    <t>211211210121</t>
+  </si>
+  <si>
+    <t>333323233333</t>
+  </si>
+  <si>
+    <t>212211210121</t>
+  </si>
+  <si>
+    <t>211121210121</t>
+  </si>
+  <si>
+    <t>333131333333</t>
+  </si>
+  <si>
+    <t>333231333333</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,2,2,2,2,3,3,2,2,2,2,3,3,2,2,2,2,3,3,2,2,2,2,3,3,2,2,2,2,3,3,2,2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +341,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +536,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -558,6 +707,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +850,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -976,16 +1237,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96323569-F538-4362-B49B-D43F190F4109}">
-  <dimension ref="A1:BN29"/>
+  <dimension ref="A1:BN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="23" width="3.5546875" customWidth="1"/>
     <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
     <col min="26" max="65" width="3.5546875" customWidth="1"/>
@@ -1396,7 +1659,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
       <c r="D3" s="2">
@@ -1414,7 +1677,7 @@
       <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>3</v>
       </c>
       <c r="J3" s="1">
@@ -1426,7 +1689,7 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="N3" s="2">
@@ -1441,10 +1704,10 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
         <v>1</v>
       </c>
       <c r="T3" s="2">
@@ -3601,7 +3864,7 @@
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3609,7 +3872,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -3617,7 +3880,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="8"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -3625,7 +3888,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="8"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -3633,7 +3896,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="8"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -3641,7 +3904,7 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
+      <c r="AP14" s="8"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -3649,7 +3912,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
+      <c r="AX14" s="8"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
@@ -3657,7 +3920,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
+      <c r="BF14" s="8"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
@@ -3667,741 +3930,5486 @@
       <c r="BM14" s="2"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="8"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16*8-7</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C20" si="1">B17*8-7</f>
+        <v>57</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="str">
         <f>IF(B4&lt;&gt;B12,"OK","")</f>
         <v/>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C24" s="2" t="str">
         <f>IF(C4&lt;&gt;C12,"OK","")</f>
         <v/>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f>IF(D4&lt;&gt;D12,"OK","")</f>
         <v/>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E24" s="2" t="str">
         <f>IF(E4&lt;&gt;E12,"OK","")</f>
         <v/>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F24" s="2" t="str">
         <f>IF(F4&lt;&gt;F12,"OK","")</f>
         <v/>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G24" s="2" t="str">
         <f>IF(G4&lt;&gt;G12,"OK","")</f>
         <v/>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H24" s="2" t="str">
         <f>IF(H4&lt;&gt;H12,"OK","")</f>
         <v/>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I24" s="2" t="str">
         <f>IF(I4&lt;&gt;I12,"OK","")</f>
         <v/>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J24" s="2" t="str">
         <f>IF(J4&lt;&gt;J12,"OK","")</f>
         <v/>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f>IF(K4&lt;&gt;K12,"OK","")</f>
         <v/>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f>IF(L4&lt;&gt;L12,"OK","")</f>
         <v/>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f>IF(M4&lt;&gt;M12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="N15" s="2" t="str">
+      <c r="N24" s="2" t="str">
         <f>IF(N4&lt;&gt;N12,"OK","")</f>
         <v/>
       </c>
-      <c r="O15" s="2" t="str">
+      <c r="O24" s="2" t="str">
         <f>IF(O4&lt;&gt;O12,"OK","")</f>
         <v/>
       </c>
-      <c r="P15" s="2" t="str">
+      <c r="P24" s="2" t="str">
         <f>IF(P4&lt;&gt;P12,"OK","")</f>
         <v/>
       </c>
-      <c r="Q15" s="2" t="str">
+      <c r="Q24" s="2" t="str">
         <f>IF(Q4&lt;&gt;Q12,"OK","")</f>
         <v/>
       </c>
-      <c r="R15" s="2" t="str">
-        <f>IF(R4&lt;&gt;R12,"OK","")</f>
-        <v/>
-      </c>
-      <c r="S15" s="2" t="str">
+      <c r="R24" s="11"/>
+      <c r="S24" s="2" t="str">
         <f>IF(S4&lt;&gt;S12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="T15" s="2" t="str">
+      <c r="T24" s="2" t="str">
         <f>IF(T4&lt;&gt;T12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="U15" s="2" t="str">
+      <c r="U24" s="2" t="str">
         <f>IF(U4&lt;&gt;U12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="V24" s="2" t="str">
         <f>IF(V4&lt;&gt;V12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="W15" s="2" t="str">
+      <c r="W24" s="2" t="str">
         <f>IF(W4&lt;&gt;W12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="X24" s="2" t="str">
         <f>IF(X4&lt;&gt;X12,"OK","")</f>
         <v/>
       </c>
-      <c r="Y15" s="2" t="str">
+      <c r="Y24" s="2" t="str">
         <f>IF(Y4&lt;&gt;Y12,"OK","")</f>
         <v/>
       </c>
-      <c r="Z15" s="2" t="str">
+      <c r="Z24" s="2" t="str">
         <f>IF(Z4&lt;&gt;Z12,"OK","")</f>
         <v/>
       </c>
-      <c r="AA15" s="2" t="str">
+      <c r="AA24" s="2" t="str">
         <f>IF(AA4&lt;&gt;AA12,"OK","")</f>
         <v/>
       </c>
-      <c r="AB15" s="2" t="str">
+      <c r="AB24" s="2" t="str">
         <f>IF(AB4&lt;&gt;AB12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AC15" s="2" t="str">
+      <c r="AC24" s="2" t="str">
         <f>IF(AC4&lt;&gt;AC12,"OK","")</f>
         <v/>
       </c>
-      <c r="AD15" s="2" t="str">
+      <c r="AD24" s="2" t="str">
         <f>IF(AD4&lt;&gt;AD12,"OK","")</f>
         <v/>
       </c>
-      <c r="AE15" s="2" t="str">
+      <c r="AE24" s="2" t="str">
         <f>IF(AE4&lt;&gt;AE12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AF15" s="2" t="str">
+      <c r="AF24" s="2" t="str">
         <f>IF(AF4&lt;&gt;AF12,"OK","")</f>
         <v/>
       </c>
-      <c r="AG15" s="2" t="str">
+      <c r="AG24" s="2" t="str">
         <f>IF(AG4&lt;&gt;AG12,"OK","")</f>
         <v/>
       </c>
-      <c r="AH15" s="2" t="str">
+      <c r="AH24" s="2" t="str">
         <f>IF(AH4&lt;&gt;AH12,"OK","")</f>
         <v/>
       </c>
-      <c r="AI15" s="2" t="str">
+      <c r="AI24" s="2" t="str">
         <f>IF(AI4&lt;&gt;AI12,"OK","")</f>
         <v/>
       </c>
-      <c r="AJ15" s="2" t="str">
+      <c r="AJ24" s="2" t="str">
         <f>IF(AJ4&lt;&gt;AJ12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AK15" s="2" t="str">
+      <c r="AK24" s="2" t="str">
         <f>IF(AK4&lt;&gt;AK12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AL15" s="2" t="str">
+      <c r="AL24" s="2" t="str">
         <f>IF(AL4&lt;&gt;AL12,"OK","")</f>
         <v/>
       </c>
-      <c r="AM15" s="2" t="str">
+      <c r="AM24" s="2" t="str">
         <f>IF(AM4&lt;&gt;AM12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AN15" s="2" t="str">
+      <c r="AN24" s="2" t="str">
         <f>IF(AN4&lt;&gt;AN12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AO15" s="2" t="str">
+      <c r="AO24" s="2" t="str">
         <f>IF(AO4&lt;&gt;AO12,"OK","")</f>
         <v/>
       </c>
-      <c r="AP15" s="2" t="str">
+      <c r="AP24" s="2" t="str">
         <f>IF(AP4&lt;&gt;AP12,"OK","")</f>
         <v/>
       </c>
-      <c r="AQ15" s="2" t="str">
+      <c r="AQ24" s="2" t="str">
         <f>IF(AQ4&lt;&gt;AQ12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AR15" s="2" t="str">
+      <c r="AR24" s="2" t="str">
         <f>IF(AR4&lt;&gt;AR12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AS15" s="2" t="str">
+      <c r="AS24" s="2" t="str">
         <f>IF(AS4&lt;&gt;AS12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AT15" s="2" t="str">
+      <c r="AT24" s="2" t="str">
         <f>IF(AT4&lt;&gt;AT12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AU15" s="2" t="str">
+      <c r="AU24" s="2" t="str">
         <f>IF(AU4&lt;&gt;AU12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="AV15" s="2" t="str">
+      <c r="AV24" s="2" t="str">
         <f>IF(AV4&lt;&gt;AV12,"OK","")</f>
         <v/>
       </c>
-      <c r="AW15" s="2" t="str">
+      <c r="AW24" s="2" t="str">
         <f>IF(AW4&lt;&gt;AW12,"OK","")</f>
         <v/>
       </c>
-      <c r="AX15" s="2" t="str">
+      <c r="AX24" s="2" t="str">
         <f>IF(AX4&lt;&gt;AX12,"OK","")</f>
         <v/>
       </c>
-      <c r="AY15" s="2" t="str">
+      <c r="AY24" s="2" t="str">
         <f>IF(AY4&lt;&gt;AY12,"OK","")</f>
         <v/>
       </c>
-      <c r="AZ15" s="2" t="str">
+      <c r="AZ24" s="2" t="str">
         <f>IF(AZ4&lt;&gt;AZ12,"OK","")</f>
         <v/>
       </c>
-      <c r="BA15" s="2" t="str">
+      <c r="BA24" s="2" t="str">
         <f>IF(BA4&lt;&gt;BA12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BB15" s="2" t="str">
+      <c r="BB24" s="2" t="str">
         <f>IF(BB4&lt;&gt;BB12,"OK","")</f>
         <v/>
       </c>
-      <c r="BC15" s="2" t="str">
+      <c r="BC24" s="2" t="str">
         <f>IF(BC4&lt;&gt;BC12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BD15" s="2" t="str">
+      <c r="BD24" s="2" t="str">
         <f>IF(BD4&lt;&gt;BD12,"OK","")</f>
         <v/>
       </c>
-      <c r="BE15" s="2" t="str">
+      <c r="BE24" s="2" t="str">
         <f>IF(BE4&lt;&gt;BE12,"OK","")</f>
         <v/>
       </c>
-      <c r="BF15" s="2" t="str">
+      <c r="BF24" s="2" t="str">
         <f>IF(BF4&lt;&gt;BF12,"OK","")</f>
         <v/>
       </c>
-      <c r="BG15" s="2" t="str">
+      <c r="BG24" s="2" t="str">
         <f>IF(BG4&lt;&gt;BG12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BH15" s="2" t="str">
+      <c r="BH24" s="2" t="str">
         <f>IF(BH4&lt;&gt;BH12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BI15" s="2" t="str">
+      <c r="BI24" s="2" t="str">
         <f>IF(BI4&lt;&gt;BI12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BJ15" s="2" t="str">
+      <c r="BJ24" s="2" t="str">
         <f>IF(BJ4&lt;&gt;BJ12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BK15" s="2" t="str">
+      <c r="BK24" s="2" t="str">
         <f>IF(BK4&lt;&gt;BK12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BL15" s="2" t="str">
+      <c r="BL24" s="2" t="str">
         <f>IF(BL4&lt;&gt;BL12,"OK","")</f>
         <v>OK</v>
       </c>
-      <c r="BM15" s="2" t="str">
+      <c r="BM24" s="2" t="str">
         <f>IF(BM4&lt;&gt;BM12,"OK","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>B25+$I$23</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="2">C25+$I$23</f>
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D26">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
-        <f ca="1">OFFSET($B9, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <f ca="1">OFFSET($B9, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <f ca="1">OFFSET($B9, 0, D$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <f ca="1">OFFSET($B9, 0, E$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <f ca="1">OFFSET($B9, 0, F$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="G18" t="str">
-        <f ca="1">B18&amp;C18&amp;D18&amp;E18&amp;F18</f>
+      <c r="B27">
+        <f ca="1">OFFSET($B9, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f ca="1">OFFSET($B9, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f ca="1">OFFSET($B9, 0, D$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f ca="1">OFFSET($B9, 0, E$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f ca="1">OFFSET($B9, 0, F$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27:G36" ca="1" si="3">B27&amp;C27&amp;D27&amp;E27&amp;F27</f>
         <v>33222</v>
       </c>
-      <c r="I18">
-        <f ca="1">COUNTIF($G$18:$G$29,G18)</f>
-        <v>1</v>
-      </c>
-      <c r="L18" t="str">
-        <f ca="1">""""&amp;G18&amp;""": """&amp;A18&amp;""";"</f>
-        <v>"33222": "L";</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="I27">
+        <f ca="1">COUNTIF($G$27:$G$38,G27)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <f ca="1">""""&amp;G27&amp;""": """&amp;A27&amp;""","</f>
+        <v>"33222": "L",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
-        <f ca="1">OFFSET($B8, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f ca="1">OFFSET($B8, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <f ca="1">OFFSET($B8, 0, D$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f ca="1">OFFSET($B8, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f ca="1">OFFSET($B8, 0, F$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="G19" t="str">
-        <f ca="1">B19&amp;C19&amp;D19&amp;E19&amp;F19</f>
+      <c r="B28">
+        <f ca="1">OFFSET($B8, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f ca="1">OFFSET($B8, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f ca="1">OFFSET($B8, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f ca="1">OFFSET($B8, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f ca="1">OFFSET($B8, 0, F$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>33113</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I29" ca="1" si="1">COUNTIF($G$18:$G$29,G19)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" ca="1" si="2">""""&amp;G19&amp;""": """&amp;A19&amp;""";"</f>
-        <v>"33113": "J";</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="I28">
+        <f t="shared" ref="I28:I38" ca="1" si="4">COUNTIF($G$27:$G$38,G28)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" ref="L28:L38" ca="1" si="5">""""&amp;G28&amp;""": """&amp;A28&amp;""","</f>
+        <v>"33113": "J",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <f ca="1">OFFSET($B7, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <f ca="1">OFFSET($B7, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f ca="1">OFFSET($B7, 0, D$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f ca="1">OFFSET($B7, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f ca="1">OFFSET($B7, 0, F$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="G20" t="str">
-        <f ca="1">B20&amp;C20&amp;D20&amp;E20&amp;F20</f>
-        <v>33212</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33212": "Itop";</v>
-      </c>
-      <c r="X20">
-        <v>1280</v>
-      </c>
-      <c r="Y20">
-        <f>X20/8</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <f ca="1">OFFSET($B5, 0, B$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <f ca="1">OFFSET($B5, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f ca="1">OFFSET($B5, 0, D$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f ca="1">OFFSET($B5, 0, E$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <f ca="1">OFFSET($B5, 0, F$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" t="str">
-        <f ca="1">B21&amp;C21&amp;D21&amp;E21&amp;F21</f>
-        <v>23121</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"23121": "Imiddle";</v>
-      </c>
-      <c r="X21">
-        <v>1152</v>
-      </c>
-      <c r="Y21">
-        <f>X21/8</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <f ca="1">OFFSET($B2, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <f ca="1">OFFSET($B2, 0, C$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f ca="1">OFFSET($B2, 0, D$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f ca="1">OFFSET($B2, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f ca="1">OFFSET($B2, 0, F$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" t="str">
-        <f ca="1">B22&amp;C22&amp;D22&amp;E22&amp;F22</f>
-        <v>31211</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"31211": "Ibottom";</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <f ca="1">OFFSET($B4, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <f ca="1">OFFSET($B4, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <f ca="1">OFFSET($B4, 0, D$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <f ca="1">OFFSET($B4, 0, E$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <f ca="1">OFFSET($B4, 0, F$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <f ca="1">B23&amp;C23&amp;D23&amp;E23&amp;F23</f>
-        <v>33121</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33121": "Ileft";</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <f ca="1">OFFSET($B3, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <f ca="1">OFFSET($B3, 0, C$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f ca="1">OFFSET($B3, 0, D$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f ca="1">OFFSET($B3, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f ca="1">OFFSET($B3, 0, F$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <f ca="1">B24&amp;C24&amp;D24&amp;E24&amp;F24</f>
-        <v>31111</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"31111": "Icenter";</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <f ca="1">OFFSET($B6, 0, B$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <f ca="1">OFFSET($B6, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <f ca="1">OFFSET($B6, 0, D$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f ca="1">OFFSET($B6, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f ca="1">OFFSET($B6, 0, F$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <f ca="1">B25&amp;C25&amp;D25&amp;E25&amp;F25</f>
-        <v>23212</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"23212": "Iright";</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <f ca="1">OFFSET($B10, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f ca="1">OFFSET($B10, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <f ca="1">OFFSET($B10, 0, D$17-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f ca="1">OFFSET($B10, 0, E$17-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f ca="1">OFFSET($B10, 0, F$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="G26" t="str">
-        <f ca="1">B26&amp;C26&amp;D26&amp;E26&amp;F26</f>
-        <v>33003</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33003": "O";</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <f ca="1">OFFSET($B13, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <f ca="1">OFFSET($B13, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <f ca="1">OFFSET($B13, 0, D$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f ca="1">OFFSET($B13, 0, E$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f ca="1">OFFSET($B13, 0, F$17-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G27" t="str">
-        <f ca="1">B27&amp;C27&amp;D27&amp;E27&amp;F27</f>
-        <v>33111</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33111": "Z";</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <f ca="1">OFFSET($B11, 0, B$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <f ca="1">OFFSET($B11, 0, C$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <f ca="1">OFFSET($B11, 0, D$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f ca="1">OFFSET($B11, 0, E$17-1)</f>
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <f ca="1">OFFSET($B11, 0, F$17-1)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" ref="G20:G30" ca="1" si="3">B28&amp;C28&amp;D28&amp;E28&amp;F28</f>
-        <v>33223</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33223": "S";</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
       <c r="B29">
-        <f ca="1">OFFSET($B12, 0, B$17-1)</f>
+        <f ca="1">OFFSET($B7, 0, B$26-1)</f>
         <v>3</v>
       </c>
       <c r="C29">
-        <f ca="1">OFFSET($B12, 0, C$17-1)</f>
+        <f ca="1">OFFSET($B7, 0, C$26-1)</f>
         <v>3</v>
       </c>
       <c r="D29">
-        <f ca="1">OFFSET($B12, 0, D$17-1)</f>
-        <v>1</v>
+        <f ca="1">OFFSET($B7, 0, D$26-1)</f>
+        <v>2</v>
       </c>
       <c r="E29">
-        <f ca="1">OFFSET($B12, 0, E$17-1)</f>
+        <f ca="1">OFFSET($B7, 0, E$26-1)</f>
         <v>1</v>
       </c>
       <c r="F29">
-        <f ca="1">OFFSET($B12, 0, F$17-1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET($B7, 0, F$26-1)</f>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v>33211</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33211": "Itop",</v>
+      </c>
+      <c r="X29">
+        <v>1280</v>
+      </c>
+      <c r="Y29">
+        <f>X29/8</f>
+        <v>160</v>
+      </c>
+      <c r="Z29">
+        <f>Y29/8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f ca="1">OFFSET($B5, 0, B$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f ca="1">OFFSET($B5, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f ca="1">OFFSET($B5, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f ca="1">OFFSET($B5, 0, E$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f ca="1">OFFSET($B5, 0, F$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>23122</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"23122": "Imiddle",</v>
+      </c>
+      <c r="X30">
+        <v>1152</v>
+      </c>
+      <c r="Y30">
+        <f>X30/8</f>
+        <v>144</v>
+      </c>
+      <c r="Z30">
+        <f>Y30/8</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <f ca="1">OFFSET($B2, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f ca="1">OFFSET($B2, 0, C$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f ca="1">OFFSET($B2, 0, D$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f ca="1">OFFSET($B2, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f ca="1">OFFSET($B2, 0, F$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>31211</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"31211": "Ibottom",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <f ca="1">OFFSET($B4, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f ca="1">OFFSET($B4, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f ca="1">OFFSET($B4, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f ca="1">OFFSET($B4, 0, E$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f ca="1">OFFSET($B4, 0, F$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>33121</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33121": "Ileft",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <f ca="1">OFFSET($B3, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f ca="1">OFFSET($B3, 0, C$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f ca="1">OFFSET($B3, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f ca="1">OFFSET($B3, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f ca="1">OFFSET($B3, 0, F$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>31112</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"31112": "Icenter",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <f ca="1">OFFSET($B6, 0, B$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f ca="1">OFFSET($B6, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f ca="1">OFFSET($B6, 0, D$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f ca="1">OFFSET($B6, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f ca="1">OFFSET($B6, 0, F$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>23211</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"23211": "Iright",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <f ca="1">OFFSET($B10, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f ca="1">OFFSET($B10, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f ca="1">OFFSET($B10, 0, D$26-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f ca="1">OFFSET($B10, 0, E$26-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f ca="1">OFFSET($B10, 0, F$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>33003</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33003": "O",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <f ca="1">OFFSET($B13, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f ca="1">OFFSET($B13, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f ca="1">OFFSET($B13, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f ca="1">OFFSET($B13, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f ca="1">OFFSET($B13, 0, F$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>33111</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33111": "Z",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <f ca="1">OFFSET($B11, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f ca="1">OFFSET($B11, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f ca="1">OFFSET($B11, 0, D$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f ca="1">OFFSET($B11, 0, E$26-1)</f>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f ca="1">OFFSET($B11, 0, F$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37:G38" ca="1" si="6">B37&amp;C37&amp;D37&amp;E37&amp;F37</f>
+        <v>33223</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33223": "S",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <f ca="1">OFFSET($B12, 0, B$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f ca="1">OFFSET($B12, 0, C$26-1)</f>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f ca="1">OFFSET($B12, 0, D$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f ca="1">OFFSET($B12, 0, E$26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f ca="1">OFFSET($B12, 0, F$26-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>33110</v>
       </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>"33110": "T";</v>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"33110": "T",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f>B9</f>
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:BL43" si="7">C9</f>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <f>AQ9</f>
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="BA43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="BD43">
+        <f>BD9</f>
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BG43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BJ43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BK43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BL43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BM43">
+        <f>BM9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <f>B8</f>
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:BM44" si="8">C8</f>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AZ44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BA44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BE44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BH44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BI44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BK44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BL44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BM44">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <f>B7</f>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:BM45" si="9">C7</f>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AZ45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BA45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BI45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BJ45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BK45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BL45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BM45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <f>B5</f>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:BM46" si="10">C5</f>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BA46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BH46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BI46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BJ46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BK46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BM46">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f>B2</f>
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:BM47" si="11">C2</f>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AZ47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BH47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BI47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BJ47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BK47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BL47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BM47">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:BM48" si="12">C4</f>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AZ48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BA48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BD48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BE48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BG48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BH48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BI48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BJ48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BK48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BL48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BM48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <f>B3</f>
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:BM49" si="13">C3</f>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AS49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AZ49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BA49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BF49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BG49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BH49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BI49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BJ49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BK49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BL49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BM49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <f>B6</f>
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:BM50" si="14">C6</f>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AZ50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BA50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BE50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BF50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BG50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BH50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BI50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BJ50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BL50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BM50">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <f>B10</f>
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:BM51" si="15">C10</f>
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AN51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AS51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BF51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BG51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BH51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BI51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BJ51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BK51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BL51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BM51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <f>B13</f>
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:BM52" si="16">C13</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AZ52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BA52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BC52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BD52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BE52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BF52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BG52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BH52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BI52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BJ52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BK52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BL52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BM52">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <f>B11</f>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:BM53" si="17">C11</f>
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AS53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AU53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AZ53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BA53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BB53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BD53">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BE53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BF53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BG53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BH53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BI53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BJ53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BK53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BL53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="BM53">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <f>B12</f>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:BM54" si="18">C12</f>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AQ54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AZ54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BC54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BD54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BE54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BF54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BG54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BH54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BI54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BJ54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BK54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BL54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="BM54">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f>_xlfn.CONCAT(B43:B54)</f>
+        <v>333333333333</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ref="C56:BM56" si="19">_xlfn.CONCAT(C43:C54)</f>
+        <v>333233323333</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="19"/>
+        <v>333133313333</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="19"/>
+        <v>333133313333</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="19"/>
+        <v>333233313333</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="19"/>
+        <v>333133313333</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="19"/>
+        <v>333133313333</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="19"/>
+        <v>333333333333</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="19"/>
+        <v>333313133333</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="19"/>
+        <v>211111210121</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="19"/>
+        <v>211121110121</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="19"/>
+        <v>211112110121</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="19"/>
+        <v>212121120121</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="19"/>
+        <v>211111210121</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="19"/>
+        <v>211211110121</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333133333</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="19"/>
+        <v>333313133333</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="19"/>
+        <v>211212110121</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="19"/>
+        <v>232111123130</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="19"/>
+        <v>231211213130</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="19"/>
+        <v>231111113130</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="19"/>
+        <v>231112113133</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="19"/>
+        <v>212121120121</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333233333</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="19"/>
+        <v>333313233333</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="19"/>
+        <v>211121110121</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="19"/>
+        <v>231111113130</v>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" si="19"/>
+        <v>201121113301</v>
+      </c>
+      <c r="AD56" t="str">
+        <f t="shared" si="19"/>
+        <v>201111123301</v>
+      </c>
+      <c r="AE56" t="str">
+        <f t="shared" si="19"/>
+        <v>231211213133</v>
+      </c>
+      <c r="AF56" t="str">
+        <f t="shared" si="19"/>
+        <v>211111110121</v>
+      </c>
+      <c r="AG56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333133333</v>
+      </c>
+      <c r="AH56" t="str">
+        <f t="shared" si="19"/>
+        <v>333313133333</v>
+      </c>
+      <c r="AI56" t="str">
+        <f t="shared" si="19"/>
+        <v>212211120121</v>
+      </c>
+      <c r="AJ56" t="str">
+        <f t="shared" si="19"/>
+        <v>231111213130</v>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" si="19"/>
+        <v>201112113301</v>
+      </c>
+      <c r="AL56" t="str">
+        <f t="shared" si="19"/>
+        <v>202111113301</v>
+      </c>
+      <c r="AM56" t="str">
+        <f t="shared" si="19"/>
+        <v>231121113133</v>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="19"/>
+        <v>212112120121</v>
+      </c>
+      <c r="AO56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333133333</v>
+      </c>
+      <c r="AP56" t="str">
+        <f t="shared" si="19"/>
+        <v>333313133333</v>
+      </c>
+      <c r="AQ56" t="str">
+        <f t="shared" si="19"/>
+        <v>211112110121</v>
+      </c>
+      <c r="AR56" t="str">
+        <f t="shared" si="19"/>
+        <v>231121113130</v>
+      </c>
+      <c r="AS56" t="str">
+        <f t="shared" si="19"/>
+        <v>231111123133</v>
+      </c>
+      <c r="AT56" t="str">
+        <f t="shared" si="19"/>
+        <v>231211113133</v>
+      </c>
+      <c r="AU56" t="str">
+        <f t="shared" si="19"/>
+        <v>231111113133</v>
+      </c>
+      <c r="AV56" t="str">
+        <f t="shared" si="19"/>
+        <v>211211210121</v>
+      </c>
+      <c r="AW56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333133333</v>
+      </c>
+      <c r="AX56" t="str">
+        <f t="shared" si="19"/>
+        <v>333323233333</v>
+      </c>
+      <c r="AY56" t="str">
+        <f t="shared" si="19"/>
+        <v>211111110121</v>
+      </c>
+      <c r="AZ56" t="str">
+        <f t="shared" si="19"/>
+        <v>212211210121</v>
+      </c>
+      <c r="BA56" t="str">
+        <f t="shared" si="19"/>
+        <v>211112110121</v>
+      </c>
+      <c r="BB56" t="str">
+        <f t="shared" si="19"/>
+        <v>211121210121</v>
+      </c>
+      <c r="BC56" t="str">
+        <f t="shared" si="19"/>
+        <v>212112120121</v>
+      </c>
+      <c r="BD56" t="str">
+        <f t="shared" si="19"/>
+        <v>211111110121</v>
+      </c>
+      <c r="BE56" t="str">
+        <f t="shared" si="19"/>
+        <v>331333133333</v>
+      </c>
+      <c r="BF56" t="str">
+        <f t="shared" si="19"/>
+        <v>333333333333</v>
+      </c>
+      <c r="BG56" t="str">
+        <f t="shared" si="19"/>
+        <v>333131333333</v>
+      </c>
+      <c r="BH56" t="str">
+        <f t="shared" si="19"/>
+        <v>333131333333</v>
+      </c>
+      <c r="BI56" t="str">
+        <f t="shared" si="19"/>
+        <v>333131333333</v>
+      </c>
+      <c r="BJ56" t="str">
+        <f t="shared" si="19"/>
+        <v>333131333333</v>
+      </c>
+      <c r="BK56" t="str">
+        <f t="shared" si="19"/>
+        <v>333231333333</v>
+      </c>
+      <c r="BL56" t="str">
+        <f t="shared" si="19"/>
+        <v>333131333333</v>
+      </c>
+      <c r="BM56" t="str">
+        <f t="shared" si="19"/>
+        <v>333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" t="s">
+        <v>33</v>
+      </c>
+      <c r="W57" t="s">
+        <v>34</v>
+      </c>
+      <c r="X57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>31</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>42</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>43</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>50</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>52</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>53</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>54</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>55</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>59</v>
+      </c>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>63</v>
+      </c>
+      <c r="B121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:BM15">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="B27:F38">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4412,8 +9420,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F29">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="B2:BM24">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4427,4 +9435,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1FEA2F-2BAF-4AC4-A9F4-FD2AE2C45C7D}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354D7A9-ED92-443A-8331-E64951015020}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A153F7-62F4-48EC-B860-074DBEF42D6A}">
+  <dimension ref="B1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="71" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Live/tiles/pieces.xlsx
+++ b/Live/tiles/pieces.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\Programing Stuff\ROM Editor\Live\tiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D4D020-8783-432F-BE42-9F2075EB1FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF9B5A-2245-4E4A-A7B4-B9E01BE84604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{048FF369-37DA-4254-91C9-C57CDC2875E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{048FF369-37DA-4254-91C9-C57CDC2875E1}"/>
   </bookViews>
   <sheets>
     <sheet name="pieces" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -832,7 +833,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,13 +854,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -870,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1239,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96323569-F538-4362-B49B-D43F190F4109}">
   <dimension ref="A1:BN122"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3859,7 @@
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3872,7 +3867,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -3880,7 +3875,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="8"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -3888,7 +3883,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -3896,7 +3891,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="8"/>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -3904,7 +3899,7 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="8"/>
+      <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -3912,7 +3907,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="8"/>
+      <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
@@ -3920,7 +3915,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
-      <c r="BF14" s="8"/>
+      <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
@@ -3930,7 +3925,7 @@
       <c r="BM14" s="2"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3938,7 +3933,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -3946,7 +3941,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="8"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -3954,7 +3949,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -3962,7 +3957,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="8"/>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -3970,7 +3965,7 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="8"/>
+      <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
@@ -3978,7 +3973,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="8"/>
+      <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
@@ -3986,7 +3981,7 @@
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
-      <c r="BF15" s="8"/>
+      <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
@@ -3996,7 +3991,7 @@
       <c r="BM15" s="2"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -4009,7 +4004,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -4017,7 +4012,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -4025,7 +4020,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -4033,7 +4028,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="8"/>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -4041,7 +4036,7 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="8"/>
+      <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -4049,7 +4044,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="8"/>
+      <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -4057,7 +4052,7 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
       <c r="BE16" s="2"/>
-      <c r="BF16" s="8"/>
+      <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
@@ -4067,7 +4062,7 @@
       <c r="BM16" s="2"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B17" s="8">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
       <c r="C17" s="2">
@@ -4080,7 +4075,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4088,7 +4083,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -4096,7 +4091,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -4104,7 +4099,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="8"/>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -4112,7 +4107,7 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="8"/>
+      <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -4120,7 +4115,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="8"/>
+      <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -4128,7 +4123,7 @@
       <c r="BC17" s="2"/>
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
-      <c r="BF17" s="8"/>
+      <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
@@ -4138,7 +4133,7 @@
       <c r="BM17" s="2"/>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B18" s="8">
+      <c r="B18" s="2">
         <v>12</v>
       </c>
       <c r="C18" s="2">
@@ -4151,7 +4146,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -4159,7 +4154,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="10"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -4167,7 +4162,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -4175,7 +4170,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="8"/>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -4183,7 +4178,7 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
-      <c r="AP18" s="8"/>
+      <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
@@ -4191,7 +4186,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="AX18" s="8"/>
+      <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
@@ -4199,7 +4194,7 @@
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
-      <c r="BF18" s="8"/>
+      <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
@@ -4209,7 +4204,7 @@
       <c r="BM18" s="2"/>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B19" s="8">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2">
@@ -4222,7 +4217,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -4230,7 +4225,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -4238,7 +4233,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="8"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -4246,7 +4241,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="8"/>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -4254,7 +4249,7 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="8"/>
+      <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
@@ -4262,7 +4257,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="8"/>
+      <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
@@ -4270,7 +4265,7 @@
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
-      <c r="BF19" s="8"/>
+      <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
@@ -4280,7 +4275,7 @@
       <c r="BM19" s="2"/>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B20" s="8">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -4293,7 +4288,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -4301,7 +4296,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -4309,7 +4304,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -4317,7 +4312,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="8"/>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -4325,7 +4320,7 @@
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
-      <c r="AP20" s="8"/>
+      <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
@@ -4333,7 +4328,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="8"/>
+      <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
@@ -4341,7 +4336,7 @@
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
-      <c r="BF20" s="8"/>
+      <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
@@ -4351,7 +4346,7 @@
       <c r="BM20" s="2"/>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4359,7 +4354,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4367,7 +4362,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -4375,7 +4370,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -4383,7 +4378,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="8"/>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -4391,7 +4386,7 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
-      <c r="AP21" s="8"/>
+      <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
@@ -4399,7 +4394,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="8"/>
+      <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
@@ -4407,7 +4402,7 @@
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
-      <c r="BF21" s="8"/>
+      <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -4417,7 +4412,7 @@
       <c r="BM21" s="2"/>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4425,7 +4420,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -4433,7 +4428,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -4441,7 +4436,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -4449,7 +4444,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="8"/>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -4457,7 +4452,7 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
-      <c r="AP22" s="8"/>
+      <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
@@ -4465,7 +4460,7 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="8"/>
+      <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
@@ -4473,7 +4468,7 @@
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
-      <c r="BF22" s="8"/>
+      <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
@@ -4501,7 +4496,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="11"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -4552,256 +4547,256 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="str">
-        <f>IF(B4&lt;&gt;B12,"OK","")</f>
+        <f t="shared" ref="B24:Q24" si="2">IF(B4&lt;&gt;B12,"OK","")</f>
         <v/>
       </c>
       <c r="C24" s="2" t="str">
-        <f>IF(C4&lt;&gt;C12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" s="2" t="str">
-        <f>IF(D4&lt;&gt;D12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E24" s="2" t="str">
-        <f>IF(E4&lt;&gt;E12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F24" s="2" t="str">
-        <f>IF(F4&lt;&gt;F12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(G4&lt;&gt;G12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(H4&lt;&gt;H12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" s="2" t="str">
-        <f>IF(I4&lt;&gt;I12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J24" s="2" t="str">
-        <f>IF(J4&lt;&gt;J12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K24" s="2" t="str">
-        <f>IF(K4&lt;&gt;K12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L24" s="2" t="str">
-        <f>IF(L4&lt;&gt;L12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M24" s="2" t="str">
-        <f>IF(M4&lt;&gt;M12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f>IF(N4&lt;&gt;N12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O24" s="2" t="str">
-        <f>IF(O4&lt;&gt;O12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P24" s="2" t="str">
-        <f>IF(P4&lt;&gt;P12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q24" s="2" t="str">
-        <f>IF(Q4&lt;&gt;Q12,"OK","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="2" t="str">
-        <f>IF(S4&lt;&gt;S12,"OK","")</f>
+        <f t="shared" ref="S24:BM24" si="3">IF(S4&lt;&gt;S12,"OK","")</f>
         <v>OK</v>
       </c>
       <c r="T24" s="2" t="str">
-        <f>IF(T4&lt;&gt;T12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="U24" s="2" t="str">
-        <f>IF(U4&lt;&gt;U12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="V24" s="2" t="str">
-        <f>IF(V4&lt;&gt;V12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="W24" s="2" t="str">
-        <f>IF(W4&lt;&gt;W12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="X24" s="2" t="str">
-        <f>IF(X4&lt;&gt;X12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y24" s="2" t="str">
-        <f>IF(Y4&lt;&gt;Y12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z24" s="2" t="str">
-        <f>IF(Z4&lt;&gt;Z12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA24" s="2" t="str">
-        <f>IF(AA4&lt;&gt;AA12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB24" s="2" t="str">
-        <f>IF(AB4&lt;&gt;AB12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AC24" s="2" t="str">
-        <f>IF(AC4&lt;&gt;AC12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD24" s="2" t="str">
-        <f>IF(AD4&lt;&gt;AD12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AE24" s="2" t="str">
-        <f>IF(AE4&lt;&gt;AE12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AF24" s="2" t="str">
-        <f>IF(AF4&lt;&gt;AF12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AG24" s="2" t="str">
-        <f>IF(AG4&lt;&gt;AG12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AH24" s="2" t="str">
-        <f>IF(AH4&lt;&gt;AH12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AI24" s="2" t="str">
-        <f>IF(AI4&lt;&gt;AI12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AJ24" s="2" t="str">
-        <f>IF(AJ4&lt;&gt;AJ12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AK24" s="2" t="str">
-        <f>IF(AK4&lt;&gt;AK12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AL24" s="2" t="str">
-        <f>IF(AL4&lt;&gt;AL12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AM24" s="2" t="str">
-        <f>IF(AM4&lt;&gt;AM12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AN24" s="2" t="str">
-        <f>IF(AN4&lt;&gt;AN12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AO24" s="2" t="str">
-        <f>IF(AO4&lt;&gt;AO12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AP24" s="2" t="str">
-        <f>IF(AP4&lt;&gt;AP12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AQ24" s="2" t="str">
-        <f>IF(AQ4&lt;&gt;AQ12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AR24" s="2" t="str">
-        <f>IF(AR4&lt;&gt;AR12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AS24" s="2" t="str">
-        <f>IF(AS4&lt;&gt;AS12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AT24" s="2" t="str">
-        <f>IF(AT4&lt;&gt;AT12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AU24" s="2" t="str">
-        <f>IF(AU4&lt;&gt;AU12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="AV24" s="2" t="str">
-        <f>IF(AV4&lt;&gt;AV12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AW24" s="2" t="str">
-        <f>IF(AW4&lt;&gt;AW12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AX24" s="2" t="str">
-        <f>IF(AX4&lt;&gt;AX12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AY24" s="2" t="str">
-        <f>IF(AY4&lt;&gt;AY12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AZ24" s="2" t="str">
-        <f>IF(AZ4&lt;&gt;AZ12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="BA24" s="2" t="str">
-        <f>IF(BA4&lt;&gt;BA12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BB24" s="2" t="str">
-        <f>IF(BB4&lt;&gt;BB12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="BC24" s="2" t="str">
-        <f>IF(BC4&lt;&gt;BC12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BD24" s="2" t="str">
-        <f>IF(BD4&lt;&gt;BD12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="BE24" s="2" t="str">
-        <f>IF(BE4&lt;&gt;BE12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="BF24" s="2" t="str">
-        <f>IF(BF4&lt;&gt;BF12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="BG24" s="2" t="str">
-        <f>IF(BG4&lt;&gt;BG12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BH24" s="2" t="str">
-        <f>IF(BH4&lt;&gt;BH12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BI24" s="2" t="str">
-        <f>IF(BI4&lt;&gt;BI12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BJ24" s="2" t="str">
-        <f>IF(BJ4&lt;&gt;BJ12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BK24" s="2" t="str">
-        <f>IF(BK4&lt;&gt;BK12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BL24" s="2" t="str">
-        <f>IF(BL4&lt;&gt;BL12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="BM24" s="2" t="str">
-        <f>IF(BM4&lt;&gt;BM12,"OK","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4821,7 +4816,7 @@
       <c r="F25">
         <v>19</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -4829,19 +4824,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:F26" si="2">C25+$I$23</f>
+        <f t="shared" ref="C26:F26" si="4">C25+$I$23</f>
         <v>9</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -4870,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27:G36" ca="1" si="3">B27&amp;C27&amp;D27&amp;E27&amp;F27</f>
+        <f t="shared" ref="G27:G36" ca="1" si="5">B27&amp;C27&amp;D27&amp;E27&amp;F27</f>
         <v>33222</v>
       </c>
       <c r="I27">
@@ -4907,15 +4902,15 @@
         <v>3</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33113</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I38" ca="1" si="4">COUNTIF($G$27:$G$38,G28)</f>
+        <f t="shared" ref="I28:I38" ca="1" si="6">COUNTIF($G$27:$G$38,G28)</f>
         <v>1</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" ref="L28:L38" ca="1" si="5">""""&amp;G28&amp;""": """&amp;A28&amp;""","</f>
+        <f t="shared" ref="L28:L38" ca="1" si="7">""""&amp;G28&amp;""": """&amp;A28&amp;""","</f>
         <v>"33113": "J",</v>
       </c>
     </row>
@@ -4944,15 +4939,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33211</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33211": "Itop",</v>
       </c>
       <c r="X29">
@@ -4992,15 +4987,15 @@
         <v>2</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>23122</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"23122": "Imiddle",</v>
       </c>
       <c r="X30">
@@ -5040,15 +5035,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>31211</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"31211": "Ibottom",</v>
       </c>
     </row>
@@ -5077,15 +5072,15 @@
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33121</v>
       </c>
       <c r="I32">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33121": "Ileft",</v>
       </c>
     </row>
@@ -5114,15 +5109,15 @@
         <v>2</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>31112</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"31112": "Icenter",</v>
       </c>
     </row>
@@ -5151,15 +5146,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>23211</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"23211": "Iright",</v>
       </c>
     </row>
@@ -5188,15 +5183,15 @@
         <v>3</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33003</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33003": "O",</v>
       </c>
     </row>
@@ -5225,15 +5220,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33111</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33111": "Z",</v>
       </c>
     </row>
@@ -5242,35 +5237,35 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <f ca="1">OFFSET($B11, 0, B$26-1)</f>
+        <f t="shared" ref="B37:F38" ca="1" si="8">OFFSET($B11, 0, B$26-1)</f>
         <v>3</v>
       </c>
       <c r="C37">
-        <f ca="1">OFFSET($B11, 0, C$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="D37">
-        <f ca="1">OFFSET($B11, 0, D$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="E37">
-        <f ca="1">OFFSET($B11, 0, E$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="F37">
-        <f ca="1">OFFSET($B11, 0, F$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:G38" ca="1" si="6">B37&amp;C37&amp;D37&amp;E37&amp;F37</f>
+        <f t="shared" ref="G37:G38" ca="1" si="9">B37&amp;C37&amp;D37&amp;E37&amp;F37</f>
         <v>33223</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33223": "S",</v>
       </c>
     </row>
@@ -5279,35 +5274,35 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <f ca="1">OFFSET($B12, 0, B$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="C38">
-        <f ca="1">OFFSET($B12, 0, C$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="D38">
-        <f ca="1">OFFSET($B12, 0, D$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E38">
-        <f ca="1">OFFSET($B12, 0, E$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f ca="1">OFFSET($B12, 0, F$26-1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>33110</v>
+      </c>
+      <c r="I38">
         <f t="shared" ca="1" si="6"/>
-        <v>33110</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>"33110": "T",</v>
       </c>
     </row>
@@ -5320,163 +5315,163 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:BL43" si="7">C9</f>
+        <f t="shared" ref="C43:BL43" si="10">C9</f>
         <v>3</v>
       </c>
       <c r="D43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="S43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="T43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AM43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AQ43">
@@ -5484,51 +5479,51 @@
         <v>2</v>
       </c>
       <c r="AR43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AS43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AU43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AV43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AW43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AY43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AZ43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BA43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BC43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BD43">
@@ -5536,35 +5531,35 @@
         <v>2</v>
       </c>
       <c r="BE43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BF43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BG43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BH43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BI43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BJ43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BK43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BL43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BM43">
@@ -5581,255 +5576,255 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:BM44" si="8">C8</f>
+        <f t="shared" ref="C44:BM44" si="11">C8</f>
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="S44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="V44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="X44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AQ44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AR44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AS44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AU44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AY44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BA44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BB44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BC44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BE44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BF44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BG44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BH44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BI44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BJ44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BK44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BL44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BM44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -5842,255 +5837,255 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:BM45" si="9">C7</f>
+        <f t="shared" ref="C45:BM45" si="12">C7</f>
         <v>3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="S45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AK45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AL45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AM45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AQ45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AR45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AS45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AU45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AY45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AZ45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BA45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BB45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BC45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BE45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BF45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BG45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BH45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BI45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BJ45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BK45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BL45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BM45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -6103,255 +6098,255 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:BM46" si="10">C5</f>
+        <f t="shared" ref="C46:BM46" si="13">C5</f>
         <v>2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="S46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="T46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="W46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AY46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AZ46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="BA46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BC46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BE46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="BF46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="BG46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BH46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BI46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BJ46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BK46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="BL46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BM46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
     </row>
@@ -6364,255 +6359,255 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:BM47" si="11">C2</f>
+        <f t="shared" ref="C47:BM47" si="14">C2</f>
         <v>3</v>
       </c>
       <c r="D47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="U47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AU47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AV47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AX47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AY47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AZ47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BA47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BB47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BC47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BE47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BF47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BG47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BH47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BI47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BJ47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BK47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BL47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BM47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
@@ -6625,255 +6620,255 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:BM48" si="12">C4</f>
+        <f t="shared" ref="C48:BM48" si="15">C4</f>
         <v>3</v>
       </c>
       <c r="D48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="I48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="K48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="S48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="T48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="X48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AM48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AQ48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AR48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AS48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AU48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AV48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AX48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AY48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AZ48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BA48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BB48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BC48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BE48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="BF48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="BG48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BH48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BI48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BJ48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BK48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BL48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BM48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -6886,255 +6881,255 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:BM49" si="13">C3</f>
+        <f t="shared" ref="C49:BM49" si="16">C3</f>
         <v>3</v>
       </c>
       <c r="D49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="F49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="T49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="V49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AL49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AM49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AN49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AQ49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AR49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AU49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AW49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AY49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AZ49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="BA49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BB49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="BC49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BD49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BE49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BF49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BG49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BH49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BI49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BJ49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BK49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BL49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BM49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -7147,255 +7142,255 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:BM50" si="14">C6</f>
+        <f t="shared" ref="C50:BM50" si="17">C6</f>
         <v>2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="K50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="O50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="S50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AM50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AN50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AQ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AR50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AU50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AW50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AX50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AY50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AZ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BA50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BB50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BC50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="BD50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BE50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BF50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BG50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BH50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BI50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BJ50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BK50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BL50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BM50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
     </row>
@@ -7408,255 +7403,255 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:BM51" si="15">C10</f>
+        <f t="shared" ref="C51:BM51" si="18">C10</f>
         <v>3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="H51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="I51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="J51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="K51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="R51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="U51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="W51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="X51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AL51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AM51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AN51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AP51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AQ51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AX51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AY51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BF51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BG51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BH51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BI51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BJ51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BK51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BL51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BM51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
     </row>
@@ -7669,255 +7664,255 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:BM52" si="16">C13</f>
+        <f t="shared" ref="C52:BM52" si="19">C13</f>
         <v>3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="E52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="I52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="R52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="S52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="U52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AM52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AN52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AQ52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AR52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AW52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AX52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AY52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BA52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BC52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BD52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BE52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BF52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BG52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BH52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BI52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BJ52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BK52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BL52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BM52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
@@ -7930,255 +7925,255 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:BM53" si="17">C11</f>
+        <f t="shared" ref="C53:BM53" si="20">C11</f>
         <v>3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="G53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="I53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="R53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="S53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="U53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="V53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="W53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="X53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AM53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AN53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AP53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AQ53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AR53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AS53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AV53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AW53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AX53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AY53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AZ53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BA53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BB53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BC53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BD53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BE53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BF53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BG53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BH53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BI53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BJ53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BK53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BL53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BM53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
     </row>
@@ -8191,255 +8186,255 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:BM54" si="18">C12</f>
+        <f t="shared" ref="C54:BM54" si="21">C12</f>
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="F54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="G54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="H54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="J54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="K54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="R54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="S54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="X54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AL54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AM54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AN54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AO54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AP54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AQ54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AR54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AS54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AY54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AZ54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BA54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BB54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BC54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BE54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BF54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BG54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BH54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BI54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BJ54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BK54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BL54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BM54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
     </row>
@@ -8449,255 +8444,255 @@
         <v>333333333333</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ref="C56:BM56" si="19">_xlfn.CONCAT(C43:C54)</f>
+        <f t="shared" ref="C56:BM56" si="22">_xlfn.CONCAT(C43:C54)</f>
         <v>333233323333</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333133313333</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333133313333</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333233313333</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333133313333</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333133313333</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333333333333</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333313133333</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211111210121</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211121110121</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211112110121</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212121120121</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211111210121</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211211110121</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333133333</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333313133333</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211212110121</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>232111123130</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231211213130</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231111113130</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231112113133</v>
       </c>
       <c r="X56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212121120121</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333233333</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333313233333</v>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211121110121</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231111113130</v>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>201121113301</v>
       </c>
       <c r="AD56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>201111123301</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231211213133</v>
       </c>
       <c r="AF56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211111110121</v>
       </c>
       <c r="AG56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333133333</v>
       </c>
       <c r="AH56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333313133333</v>
       </c>
       <c r="AI56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212211120121</v>
       </c>
       <c r="AJ56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231111213130</v>
       </c>
       <c r="AK56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>201112113301</v>
       </c>
       <c r="AL56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>202111113301</v>
       </c>
       <c r="AM56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231121113133</v>
       </c>
       <c r="AN56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212112120121</v>
       </c>
       <c r="AO56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333133333</v>
       </c>
       <c r="AP56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333313133333</v>
       </c>
       <c r="AQ56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211112110121</v>
       </c>
       <c r="AR56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231121113130</v>
       </c>
       <c r="AS56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231111123133</v>
       </c>
       <c r="AT56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231211113133</v>
       </c>
       <c r="AU56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>231111113133</v>
       </c>
       <c r="AV56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211211210121</v>
       </c>
       <c r="AW56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333133333</v>
       </c>
       <c r="AX56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333323233333</v>
       </c>
       <c r="AY56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211111110121</v>
       </c>
       <c r="AZ56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212211210121</v>
       </c>
       <c r="BA56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211112110121</v>
       </c>
       <c r="BB56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211121210121</v>
       </c>
       <c r="BC56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>212112120121</v>
       </c>
       <c r="BD56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>211111110121</v>
       </c>
       <c r="BE56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>331333133333</v>
       </c>
       <c r="BF56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333333333333</v>
       </c>
       <c r="BG56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333131333333</v>
       </c>
       <c r="BH56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333131333333</v>
       </c>
       <c r="BI56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333131333333</v>
       </c>
       <c r="BJ56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333131333333</v>
       </c>
       <c r="BK56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333231333333</v>
       </c>
       <c r="BL56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333131333333</v>
       </c>
       <c r="BM56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>333333333333</v>
       </c>
     </row>
@@ -8971,7 +8966,7 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8979,7 +8974,7 @@
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8987,7 +8982,7 @@
       <c r="A70">
         <v>12</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9003,7 +8998,7 @@
       <c r="A72">
         <v>14</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9011,7 +9006,7 @@
       <c r="A73">
         <v>15</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9035,7 +9030,7 @@
       <c r="A76">
         <v>18</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9099,7 +9094,7 @@
       <c r="A84">
         <v>26</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9139,7 +9134,7 @@
       <c r="A89">
         <v>31</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9291,7 +9286,7 @@
       <c r="A108">
         <v>50</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9307,7 +9302,7 @@
       <c r="A110">
         <v>52</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9315,7 +9310,7 @@
       <c r="A111">
         <v>53</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9331,7 +9326,7 @@
       <c r="A113">
         <v>55</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9438,6 +9433,857 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29FF42-4F20-49D3-9162-D703446CBA0C}">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>170</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(A1=$E$3,"2","")&amp;IF(A1=$E$4,"1","")&amp;IF(A1=$E$2,"0","")&amp;IF(A1=0,"3","")</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>170</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C64" si="0">IF(A2=$E$3,"2","")&amp;IF(A2=$E$4,"1","")&amp;IF(A2=$E$2,"0","")&amp;IF(A2=0,"3","")</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>170</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>170</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>27</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(E8,$B$1:$C$64,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ref="F9:L9" si="1">VLOOKUP(F8,$B$1:$C$64,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>170</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>170</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>255</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>170</v>
+      </c>
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>170</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>170</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>170</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>170</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>170</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>170</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>255</v>
+      </c>
+      <c r="B36" s="8">
+        <v>35</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>170</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>170</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>170</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>170</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>170</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>255</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>170</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>170</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>170</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>255</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>170</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>170</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>170</v>
+      </c>
+      <c r="B58" s="8">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>170</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>170</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1FEA2F-2BAF-4AC4-A9F4-FD2AE2C45C7D}">
   <dimension ref="B4"/>
   <sheetViews>
@@ -9457,7 +10303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354D7A9-ED92-443A-8331-E64951015020}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -9541,11 +10387,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A153F7-62F4-48EC-B860-074DBEF42D6A}">
   <dimension ref="B1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -9559,293 +10405,293 @@
     <row r="3" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="2:18" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="2:18" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
